--- a/team_specific_matrix/App State_B.xlsx
+++ b/team_specific_matrix/App State_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.235632183908046</v>
+        <v>0.2200956937799043</v>
       </c>
       <c r="C2">
-        <v>0.5057471264367817</v>
+        <v>0.5167464114832536</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02873563218390805</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.005747126436781609</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="P2">
-        <v>0.1494252873563219</v>
+        <v>0.1483253588516746</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07471264367816093</v>
+        <v>0.08133971291866028</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C3">
-        <v>0.05263157894736842</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6526315789473685</v>
+        <v>0.6752136752136753</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2947368421052631</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06962025316455696</v>
+        <v>0.06593406593406594</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01265822784810127</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06329113924050633</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1329113924050633</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1329113924050633</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="R6">
-        <v>0.0949367088607595</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="S6">
-        <v>0.4936708860759494</v>
+        <v>0.5054945054945055</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07741935483870968</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006451612903225806</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02580645161290323</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.167741935483871</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02580645161290323</v>
+        <v>0.02923976608187134</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1741935483870968</v>
+        <v>0.1637426900584795</v>
       </c>
       <c r="R7">
-        <v>0.06451612903225806</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="S7">
-        <v>0.4580645161290323</v>
+        <v>0.4502923976608187</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.049800796812749</v>
+        <v>0.05892857142857143</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01394422310756972</v>
+        <v>0.01607142857142857</v>
       </c>
       <c r="E8">
-        <v>0.00199203187250996</v>
+        <v>0.001785714285714286</v>
       </c>
       <c r="F8">
-        <v>0.04780876494023904</v>
+        <v>0.04642857142857143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1374501992031872</v>
+        <v>0.1392857142857143</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01195219123505976</v>
+        <v>0.01071428571428571</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.201195219123506</v>
+        <v>0.2017857142857143</v>
       </c>
       <c r="R8">
-        <v>0.07370517928286853</v>
+        <v>0.07321428571428572</v>
       </c>
       <c r="S8">
-        <v>0.4621513944223107</v>
+        <v>0.4517857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06578947368421052</v>
+        <v>0.07471264367816093</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006578947368421052</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08552631578947369</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.131578947368421</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1842105263157895</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R9">
-        <v>0.04605263157894737</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="S9">
-        <v>0.4802631578947368</v>
+        <v>0.4770114942528735</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06569343065693431</v>
+        <v>0.06952303961196443</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01551094890510949</v>
+        <v>0.01535974130962005</v>
       </c>
       <c r="E10">
-        <v>0.002737226277372263</v>
+        <v>0.003233629749393694</v>
       </c>
       <c r="F10">
-        <v>0.07116788321167883</v>
+        <v>0.0719482619240097</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1313868613138686</v>
+        <v>0.1285367825383993</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01186131386861314</v>
+        <v>0.01535974130962005</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2180656934306569</v>
+        <v>0.2158447857720291</v>
       </c>
       <c r="R10">
-        <v>0.06934306569343066</v>
+        <v>0.07356507679870655</v>
       </c>
       <c r="S10">
-        <v>0.4142335766423358</v>
+        <v>0.4066289409862571</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1152416356877323</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1115241635687732</v>
+        <v>0.1129568106312292</v>
       </c>
       <c r="K11">
-        <v>0.1858736059479554</v>
+        <v>0.1960132890365449</v>
       </c>
       <c r="L11">
-        <v>0.5613382899628253</v>
+        <v>0.5481727574750831</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02602230483271376</v>
+        <v>0.026578073089701</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6818181818181818</v>
+        <v>0.6686390532544378</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2922077922077922</v>
+        <v>0.2958579881656805</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01298701298701299</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01298701298701299</v>
+        <v>0.01775147928994083</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7428571428571429</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2571428571428571</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005952380952380952</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1785714285714286</v>
+        <v>0.1675392670157068</v>
       </c>
       <c r="I15">
-        <v>0.05357142857142857</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="J15">
-        <v>0.4047619047619048</v>
+        <v>0.3926701570680629</v>
       </c>
       <c r="K15">
-        <v>0.08928571428571429</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01785714285714286</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04761904761904762</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2023809523809524</v>
+        <v>0.225130890052356</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009523809523809525</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.219047619047619</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="I16">
-        <v>0.04761904761904762</v>
+        <v>0.06201550387596899</v>
       </c>
       <c r="J16">
-        <v>0.3904761904761905</v>
+        <v>0.3643410852713178</v>
       </c>
       <c r="K16">
-        <v>0.1714285714285714</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009523809523809525</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="N16">
-        <v>0.009523809523809525</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="O16">
-        <v>0.009523809523809525</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1333333333333333</v>
+        <v>0.1472868217054264</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009638554216867471</v>
+        <v>0.01301518438177874</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2337349397590361</v>
+        <v>0.2212581344902386</v>
       </c>
       <c r="I17">
-        <v>0.07951807228915662</v>
+        <v>0.0737527114967462</v>
       </c>
       <c r="J17">
-        <v>0.4048192771084337</v>
+        <v>0.4143167028199566</v>
       </c>
       <c r="K17">
-        <v>0.0963855421686747</v>
+        <v>0.09978308026030369</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01686746987951807</v>
+        <v>0.01518438177874186</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05301204819277108</v>
+        <v>0.05206073752711497</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1060240963855422</v>
+        <v>0.1106290672451193</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.00684931506849315</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.226027397260274</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="I18">
-        <v>0.0547945205479452</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="J18">
-        <v>0.4589041095890411</v>
+        <v>0.4476744186046512</v>
       </c>
       <c r="K18">
-        <v>0.0958904109589041</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0547945205479452</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1027397260273973</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.005756578947368421</v>
+        <v>0.008005822416302766</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2664473684210527</v>
+        <v>0.2634643377001455</v>
       </c>
       <c r="I19">
-        <v>0.08141447368421052</v>
+        <v>0.08296943231441048</v>
       </c>
       <c r="J19">
-        <v>0.3305921052631579</v>
+        <v>0.3326055312954876</v>
       </c>
       <c r="K19">
-        <v>0.1019736842105263</v>
+        <v>0.0982532751091703</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01891447368421053</v>
+        <v>0.01965065502183406</v>
       </c>
       <c r="N19">
-        <v>0.0008223684210526315</v>
+        <v>0.000727802037845706</v>
       </c>
       <c r="O19">
-        <v>0.0649671052631579</v>
+        <v>0.06186317321688501</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1291118421052632</v>
+        <v>0.1324599708879185</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/App State_B.xlsx
+++ b/team_specific_matrix/App State_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2200956937799043</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="C2">
-        <v>0.5167464114832536</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02870813397129187</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004784688995215311</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="P2">
-        <v>0.1483253588516746</v>
+        <v>0.1491228070175439</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08133971291866028</v>
+        <v>0.08771929824561403</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008547008547008548</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C3">
-        <v>0.05982905982905983</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6752136752136753</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2564102564102564</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08333333333333333</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5833333333333334</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06593406593406594</v>
+        <v>0.06</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02197802197802198</v>
+        <v>0.02</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05494505494505494</v>
+        <v>0.055</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1428571428571428</v>
+        <v>0.145</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1208791208791209</v>
+        <v>0.125</v>
       </c>
       <c r="R6">
-        <v>0.08791208791208792</v>
+        <v>0.09</v>
       </c>
       <c r="S6">
-        <v>0.5054945054945055</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08187134502923976</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005847953216374269</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02923976608187134</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02923976608187134</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1637426900584795</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.08187134502923976</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="S7">
-        <v>0.4502923976608187</v>
+        <v>0.4479166666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05892857142857143</v>
+        <v>0.05510534846029173</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01607142857142857</v>
+        <v>0.01782820097244733</v>
       </c>
       <c r="E8">
-        <v>0.001785714285714286</v>
+        <v>0.001620745542949757</v>
       </c>
       <c r="F8">
-        <v>0.04642857142857143</v>
+        <v>0.04862236628849271</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1392857142857143</v>
+        <v>0.1442463533225284</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01071428571428571</v>
+        <v>0.009724473257698542</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2017857142857143</v>
+        <v>0.1977309562398703</v>
       </c>
       <c r="R8">
-        <v>0.07321428571428572</v>
+        <v>0.06969205834683954</v>
       </c>
       <c r="S8">
-        <v>0.4517857142857143</v>
+        <v>0.4554294975688817</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07471264367816093</v>
+        <v>0.0663265306122449</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005747126436781609</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08045977011494253</v>
+        <v>0.07653061224489796</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1264367816091954</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01149425287356322</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1666666666666667</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="R9">
-        <v>0.05747126436781609</v>
+        <v>0.05612244897959184</v>
       </c>
       <c r="S9">
-        <v>0.4770114942528735</v>
+        <v>0.4948979591836735</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.06952303961196443</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01535974130962005</v>
+        <v>0.01608187134502924</v>
       </c>
       <c r="E10">
-        <v>0.003233629749393694</v>
+        <v>0.002923976608187134</v>
       </c>
       <c r="F10">
-        <v>0.0719482619240097</v>
+        <v>0.07163742690058479</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1285367825383993</v>
+        <v>0.1264619883040936</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01535974130962005</v>
+        <v>0.01608187134502924</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2158447857720291</v>
+        <v>0.2134502923976608</v>
       </c>
       <c r="R10">
-        <v>0.07356507679870655</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="S10">
-        <v>0.4066289409862571</v>
+        <v>0.4064327485380117</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1162790697674419</v>
+        <v>0.1117824773413897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1129568106312292</v>
+        <v>0.1148036253776435</v>
       </c>
       <c r="K11">
-        <v>0.1960132890365449</v>
+        <v>0.1873111782477341</v>
       </c>
       <c r="L11">
-        <v>0.5481727574750831</v>
+        <v>0.5619335347432024</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.026578073089701</v>
+        <v>0.02416918429003021</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6686390532544378</v>
+        <v>0.6736842105263158</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2958579881656805</v>
+        <v>0.2947368421052631</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.01775147928994083</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01775147928994083</v>
+        <v>0.01578947368421053</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7692307692307693</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2307692307692308</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005235602094240838</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1675392670157068</v>
+        <v>0.1792452830188679</v>
       </c>
       <c r="I15">
-        <v>0.05759162303664921</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="J15">
-        <v>0.3926701570680629</v>
+        <v>0.3726415094339622</v>
       </c>
       <c r="K15">
-        <v>0.08900523560209424</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01570680628272251</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04712041884816754</v>
+        <v>0.04716981132075472</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.225130890052356</v>
+        <v>0.2358490566037736</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007751937984496124</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.248062015503876</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="I16">
-        <v>0.06201550387596899</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="J16">
-        <v>0.3643410852713178</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="K16">
-        <v>0.1472868217054264</v>
+        <v>0.1449275362318841</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007751937984496124</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="N16">
-        <v>0.007751937984496124</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="O16">
-        <v>0.007751937984496124</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1472868217054264</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01301518438177874</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2212581344902386</v>
+        <v>0.2169625246548323</v>
       </c>
       <c r="I17">
-        <v>0.0737527114967462</v>
+        <v>0.07495069033530571</v>
       </c>
       <c r="J17">
-        <v>0.4143167028199566</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="K17">
-        <v>0.09978308026030369</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01518438177874186</v>
+        <v>0.01577909270216963</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05206073752711497</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1106290672451193</v>
+        <v>0.1242603550295858</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.005813953488372093</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2151162790697674</v>
+        <v>0.2041884816753927</v>
       </c>
       <c r="I18">
-        <v>0.05232558139534884</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="J18">
-        <v>0.4476744186046512</v>
+        <v>0.4240837696335079</v>
       </c>
       <c r="K18">
-        <v>0.09883720930232558</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005813953488372093</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06395348837209303</v>
+        <v>0.05759162303664921</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1104651162790698</v>
+        <v>0.1256544502617801</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.008005822416302766</v>
+        <v>0.007822685788787484</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2634643377001455</v>
+        <v>0.2620599739243807</v>
       </c>
       <c r="I19">
-        <v>0.08296943231441048</v>
+        <v>0.08148631029986962</v>
       </c>
       <c r="J19">
-        <v>0.3326055312954876</v>
+        <v>0.3376792698826597</v>
       </c>
       <c r="K19">
-        <v>0.0982532751091703</v>
+        <v>0.1010430247718383</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01965065502183406</v>
+        <v>0.01890482398956975</v>
       </c>
       <c r="N19">
-        <v>0.000727802037845706</v>
+        <v>0.000651890482398957</v>
       </c>
       <c r="O19">
-        <v>0.06186317321688501</v>
+        <v>0.06127770534550196</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1324599708879185</v>
+        <v>0.1290743155149935</v>
       </c>
     </row>
   </sheetData>
